--- a/data/group/fifthpart.xlsx
+++ b/data/group/fifthpart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gap\New Folder\5_th\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm\GAP\data\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46232565-3EE7-41F4-8C8D-5844B57F6C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455792F1-37A9-4B45-AE07-F5345792B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="17712" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -359,12 +358,12 @@
   <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
